--- a/prep_data/2025_passing_offense.xlsx
+++ b/prep_data/2025_passing_offense.xlsx
@@ -512,273 +512,273 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C2" t="n">
-        <v>493</v>
+        <v>563</v>
       </c>
       <c r="D2" t="n">
-        <v>340</v>
+        <v>386</v>
       </c>
       <c r="E2" t="n">
-        <v>69</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="F2" t="n">
-        <v>3736</v>
+        <v>4285</v>
       </c>
       <c r="G2" t="n">
-        <v>7.58</v>
+        <v>7.61</v>
       </c>
       <c r="H2" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I2" t="n">
         <v>11</v>
       </c>
       <c r="J2" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K2" t="n">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="L2" t="n">
-        <v>100.1</v>
+        <v>100</v>
       </c>
       <c r="M2" t="n">
-        <v>3581</v>
+        <v>4115</v>
       </c>
       <c r="N2" t="n">
-        <v>275.5</v>
+        <v>274.3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>New England Patriots</t>
+          <t>Los Angeles Rams</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C3" t="n">
-        <v>388</v>
+        <v>520</v>
       </c>
       <c r="D3" t="n">
-        <v>277</v>
+        <v>341</v>
       </c>
       <c r="E3" t="n">
-        <v>71.40000000000001</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="F3" t="n">
-        <v>3424</v>
+        <v>4179</v>
       </c>
       <c r="G3" t="n">
-        <v>8.82</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="H3" t="n">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="I3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J3" t="n">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="K3" t="n">
-        <v>178</v>
+        <v>122</v>
       </c>
       <c r="L3" t="n">
-        <v>111.7</v>
+        <v>111.9</v>
       </c>
       <c r="M3" t="n">
-        <v>3246</v>
+        <v>4057</v>
       </c>
       <c r="N3" t="n">
-        <v>249.7</v>
+        <v>270.5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Los Angeles Rams</t>
+          <t>Detroit Lions</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C4" t="n">
-        <v>433</v>
+        <v>511</v>
       </c>
       <c r="D4" t="n">
-        <v>288</v>
+        <v>349</v>
       </c>
       <c r="E4" t="n">
-        <v>66.5</v>
+        <v>68.3</v>
       </c>
       <c r="F4" t="n">
-        <v>3354</v>
+        <v>4039</v>
       </c>
       <c r="G4" t="n">
-        <v>7.75</v>
+        <v>7.9</v>
       </c>
       <c r="H4" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J4" t="n">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="K4" t="n">
-        <v>114</v>
+        <v>210</v>
       </c>
       <c r="L4" t="n">
-        <v>112.9</v>
+        <v>109.4</v>
       </c>
       <c r="M4" t="n">
-        <v>3240</v>
+        <v>3829</v>
       </c>
       <c r="N4" t="n">
-        <v>249.2</v>
+        <v>255.3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Kansas City Chiefs</t>
+          <t>New England Patriots</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C5" t="n">
-        <v>474</v>
+        <v>455</v>
       </c>
       <c r="D5" t="n">
-        <v>299</v>
+        <v>322</v>
       </c>
       <c r="E5" t="n">
-        <v>63.1</v>
+        <v>70.8</v>
       </c>
       <c r="F5" t="n">
-        <v>3398</v>
+        <v>3959</v>
       </c>
       <c r="G5" t="n">
-        <v>7.17</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H5" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I5" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J5" t="n">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="K5" t="n">
-        <v>172</v>
+        <v>200</v>
       </c>
       <c r="L5" t="n">
-        <v>91.2</v>
+        <v>108.3</v>
       </c>
       <c r="M5" t="n">
-        <v>3226</v>
+        <v>3759</v>
       </c>
       <c r="N5" t="n">
-        <v>248.2</v>
+        <v>250.6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Detroit Lions</t>
+          <t>San Francisco 49ers</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C6" t="n">
-        <v>416</v>
+        <v>514</v>
       </c>
       <c r="D6" t="n">
-        <v>290</v>
+        <v>355</v>
       </c>
       <c r="E6" t="n">
-        <v>69.7</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>3337</v>
+        <v>3888</v>
       </c>
       <c r="G6" t="n">
-        <v>8.02</v>
+        <v>7.56</v>
       </c>
       <c r="H6" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I6" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="J6" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="K6" t="n">
-        <v>180</v>
+        <v>147</v>
       </c>
       <c r="L6" t="n">
-        <v>110.2</v>
+        <v>99.3</v>
       </c>
       <c r="M6" t="n">
-        <v>3157</v>
+        <v>3741</v>
       </c>
       <c r="N6" t="n">
-        <v>242.8</v>
+        <v>249.4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>San Francisco 49ers</t>
+          <t>Seattle Seahawks</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C7" t="n">
-        <v>450</v>
+        <v>428</v>
       </c>
       <c r="D7" t="n">
-        <v>307</v>
+        <v>287</v>
       </c>
       <c r="E7" t="n">
-        <v>68.2</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="F7" t="n">
-        <v>3298</v>
+        <v>3718</v>
       </c>
       <c r="G7" t="n">
-        <v>7.33</v>
+        <v>8.69</v>
       </c>
       <c r="H7" t="n">
+        <v>24</v>
+      </c>
+      <c r="I7" t="n">
+        <v>14</v>
+      </c>
+      <c r="J7" t="n">
         <v>22</v>
       </c>
-      <c r="I7" t="n">
-        <v>13</v>
-      </c>
-      <c r="J7" t="n">
-        <v>20</v>
-      </c>
       <c r="K7" t="n">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="L7" t="n">
-        <v>93.7</v>
+        <v>99.2</v>
       </c>
       <c r="M7" t="n">
-        <v>3154</v>
+        <v>3571</v>
       </c>
       <c r="N7" t="n">
-        <v>242.6</v>
+        <v>238.1</v>
       </c>
     </row>
     <row r="8">
@@ -788,114 +788,114 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C8" t="n">
-        <v>509</v>
+        <v>580</v>
       </c>
       <c r="D8" t="n">
-        <v>340</v>
+        <v>383</v>
       </c>
       <c r="E8" t="n">
-        <v>66.8</v>
+        <v>66</v>
       </c>
       <c r="F8" t="n">
-        <v>3419</v>
+        <v>3871</v>
       </c>
       <c r="G8" t="n">
-        <v>6.72</v>
+        <v>6.67</v>
       </c>
       <c r="H8" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I8" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J8" t="n">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="K8" t="n">
-        <v>316</v>
+        <v>345</v>
       </c>
       <c r="L8" t="n">
-        <v>92.90000000000001</v>
+        <v>92.09999999999999</v>
       </c>
       <c r="M8" t="n">
-        <v>3103</v>
+        <v>3526</v>
       </c>
       <c r="N8" t="n">
-        <v>238.7</v>
+        <v>235.1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Indianapolis Colts</t>
+          <t>Denver Broncos</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C9" t="n">
-        <v>418</v>
+        <v>552</v>
       </c>
       <c r="D9" t="n">
-        <v>280</v>
+        <v>348</v>
       </c>
       <c r="E9" t="n">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F9" t="n">
-        <v>3255</v>
+        <v>3608</v>
       </c>
       <c r="G9" t="n">
-        <v>7.79</v>
+        <v>6.54</v>
       </c>
       <c r="H9" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J9" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="K9" t="n">
-        <v>167</v>
+        <v>100</v>
       </c>
       <c r="L9" t="n">
-        <v>96.5</v>
+        <v>88.8</v>
       </c>
       <c r="M9" t="n">
-        <v>3088</v>
+        <v>3508</v>
       </c>
       <c r="N9" t="n">
-        <v>237.5</v>
+        <v>233.9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Seattle Seahawks</t>
+          <t>Kansas City Chiefs</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C10" t="n">
-        <v>358</v>
+        <v>531</v>
       </c>
       <c r="D10" t="n">
-        <v>243</v>
+        <v>332</v>
       </c>
       <c r="E10" t="n">
-        <v>67.90000000000001</v>
+        <v>62.5</v>
       </c>
       <c r="F10" t="n">
-        <v>3177</v>
+        <v>3735</v>
       </c>
       <c r="G10" t="n">
-        <v>8.869999999999999</v>
+        <v>7.03</v>
       </c>
       <c r="H10" t="n">
         <v>22</v>
@@ -904,19 +904,19 @@
         <v>12</v>
       </c>
       <c r="J10" t="n">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="K10" t="n">
-        <v>114</v>
+        <v>237</v>
       </c>
       <c r="L10" t="n">
-        <v>102.1</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="M10" t="n">
-        <v>3063</v>
+        <v>3498</v>
       </c>
       <c r="N10" t="n">
-        <v>235.6</v>
+        <v>233.2</v>
       </c>
     </row>
     <row r="11">
@@ -926,89 +926,89 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C11" t="n">
-        <v>493</v>
+        <v>565</v>
       </c>
       <c r="D11" t="n">
-        <v>305</v>
+        <v>356</v>
       </c>
       <c r="E11" t="n">
-        <v>61.9</v>
+        <v>63</v>
       </c>
       <c r="F11" t="n">
-        <v>3141</v>
+        <v>3679</v>
       </c>
       <c r="G11" t="n">
-        <v>6.37</v>
+        <v>6.51</v>
       </c>
       <c r="H11" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I11" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J11" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="K11" t="n">
-        <v>167</v>
+        <v>205</v>
       </c>
       <c r="L11" t="n">
-        <v>86.59999999999999</v>
+        <v>88.2</v>
       </c>
       <c r="M11" t="n">
-        <v>2974</v>
+        <v>3474</v>
       </c>
       <c r="N11" t="n">
-        <v>228.8</v>
+        <v>231.6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Buffalo Bills</t>
+          <t>Indianapolis Colts</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C12" t="n">
-        <v>384</v>
+        <v>481</v>
       </c>
       <c r="D12" t="n">
-        <v>268</v>
+        <v>321</v>
       </c>
       <c r="E12" t="n">
-        <v>69.8</v>
+        <v>66.7</v>
       </c>
       <c r="F12" t="n">
-        <v>3137</v>
+        <v>3652</v>
       </c>
       <c r="G12" t="n">
-        <v>8.17</v>
+        <v>7.59</v>
       </c>
       <c r="H12" t="n">
         <v>22</v>
       </c>
       <c r="I12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J12" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="K12" t="n">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="L12" t="n">
-        <v>102.5</v>
+        <v>95</v>
       </c>
       <c r="M12" t="n">
-        <v>2937</v>
+        <v>3460</v>
       </c>
       <c r="N12" t="n">
-        <v>225.9</v>
+        <v>230.7</v>
       </c>
     </row>
     <row r="13">
@@ -1018,86 +1018,86 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C13" t="n">
-        <v>389</v>
+        <v>453</v>
       </c>
       <c r="D13" t="n">
-        <v>262</v>
+        <v>303</v>
       </c>
       <c r="E13" t="n">
-        <v>67.40000000000001</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="F13" t="n">
-        <v>3041</v>
+        <v>3515</v>
       </c>
       <c r="G13" t="n">
-        <v>7.82</v>
+        <v>7.76</v>
       </c>
       <c r="H13" t="n">
+        <v>25</v>
+      </c>
+      <c r="I13" t="n">
+        <v>6</v>
+      </c>
+      <c r="J13" t="n">
         <v>23</v>
       </c>
-      <c r="I13" t="n">
-        <v>4</v>
-      </c>
-      <c r="J13" t="n">
-        <v>18</v>
-      </c>
       <c r="K13" t="n">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="L13" t="n">
-        <v>106.2</v>
+        <v>103</v>
       </c>
       <c r="M13" t="n">
-        <v>2901</v>
+        <v>3340</v>
       </c>
       <c r="N13" t="n">
-        <v>223.2</v>
+        <v>222.7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Denver Broncos</t>
+          <t>Los Angeles Chargers</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C14" t="n">
-        <v>471</v>
+        <v>493</v>
       </c>
       <c r="D14" t="n">
-        <v>297</v>
+        <v>326</v>
       </c>
       <c r="E14" t="n">
-        <v>63.1</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="F14" t="n">
-        <v>2954</v>
+        <v>3581</v>
       </c>
       <c r="G14" t="n">
-        <v>6.27</v>
+        <v>7.26</v>
       </c>
       <c r="H14" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="I14" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J14" t="n">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="K14" t="n">
-        <v>92</v>
+        <v>278</v>
       </c>
       <c r="L14" t="n">
-        <v>86.2</v>
+        <v>94.2</v>
       </c>
       <c r="M14" t="n">
-        <v>2862</v>
+        <v>3303</v>
       </c>
       <c r="N14" t="n">
         <v>220.2</v>
@@ -1110,89 +1110,89 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C15" t="n">
-        <v>437</v>
+        <v>499</v>
       </c>
       <c r="D15" t="n">
-        <v>253</v>
+        <v>289</v>
       </c>
       <c r="E15" t="n">
         <v>57.9</v>
       </c>
       <c r="F15" t="n">
-        <v>2957</v>
+        <v>3449</v>
       </c>
       <c r="G15" t="n">
-        <v>6.77</v>
+        <v>6.91</v>
       </c>
       <c r="H15" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I15" t="n">
         <v>6</v>
       </c>
       <c r="J15" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K15" t="n">
-        <v>135</v>
+        <v>158</v>
       </c>
       <c r="L15" t="n">
-        <v>88.09999999999999</v>
+        <v>90.2</v>
       </c>
       <c r="M15" t="n">
-        <v>2822</v>
+        <v>3291</v>
       </c>
       <c r="N15" t="n">
-        <v>217.1</v>
+        <v>219.4</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>New York Giants</t>
+          <t>Jacksonville Jaguars</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>413</v>
+        <v>494</v>
       </c>
       <c r="D16" t="n">
-        <v>252</v>
+        <v>297</v>
       </c>
       <c r="E16" t="n">
-        <v>61</v>
+        <v>60.1</v>
       </c>
       <c r="F16" t="n">
-        <v>2987</v>
+        <v>3492</v>
       </c>
       <c r="G16" t="n">
-        <v>7.23</v>
+        <v>7.07</v>
       </c>
       <c r="H16" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="I16" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J16" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K16" t="n">
-        <v>171</v>
+        <v>217</v>
       </c>
       <c r="L16" t="n">
-        <v>88.7</v>
+        <v>89.90000000000001</v>
       </c>
       <c r="M16" t="n">
-        <v>2816</v>
+        <v>3275</v>
       </c>
       <c r="N16" t="n">
-        <v>216.6</v>
+        <v>218.3</v>
       </c>
     </row>
     <row r="17">
@@ -1202,365 +1202,365 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>458</v>
+        <v>522</v>
       </c>
       <c r="D17" t="n">
-        <v>286</v>
+        <v>331</v>
       </c>
       <c r="E17" t="n">
-        <v>62.4</v>
+        <v>63.4</v>
       </c>
       <c r="F17" t="n">
-        <v>3060</v>
+        <v>3507</v>
       </c>
       <c r="G17" t="n">
-        <v>6.68</v>
+        <v>6.72</v>
       </c>
       <c r="H17" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I17" t="n">
         <v>7</v>
       </c>
       <c r="J17" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K17" t="n">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="L17" t="n">
-        <v>88</v>
+        <v>90.7</v>
       </c>
       <c r="M17" t="n">
-        <v>2815</v>
+        <v>3258</v>
       </c>
       <c r="N17" t="n">
-        <v>216.5</v>
+        <v>217.2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Los Angeles Chargers</t>
+          <t>Atlanta Falcons</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C18" t="n">
-        <v>435</v>
+        <v>493</v>
       </c>
       <c r="D18" t="n">
-        <v>284</v>
+        <v>301</v>
       </c>
       <c r="E18" t="n">
-        <v>65.3</v>
+        <v>61.1</v>
       </c>
       <c r="F18" t="n">
-        <v>3071</v>
+        <v>3397</v>
       </c>
       <c r="G18" t="n">
-        <v>7.06</v>
+        <v>6.89</v>
       </c>
       <c r="H18" t="n">
+        <v>17</v>
+      </c>
+      <c r="I18" t="n">
+        <v>7</v>
+      </c>
+      <c r="J18" t="n">
         <v>22</v>
       </c>
-      <c r="I18" t="n">
-        <v>11</v>
-      </c>
-      <c r="J18" t="n">
-        <v>47</v>
-      </c>
       <c r="K18" t="n">
-        <v>269</v>
+        <v>159</v>
       </c>
       <c r="L18" t="n">
-        <v>92.2</v>
+        <v>87.3</v>
       </c>
       <c r="M18" t="n">
-        <v>2802</v>
+        <v>3238</v>
       </c>
       <c r="N18" t="n">
-        <v>215.5</v>
+        <v>215.9</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Atlanta Falcons</t>
+          <t>Buffalo Bills</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C19" t="n">
-        <v>414</v>
+        <v>431</v>
       </c>
       <c r="D19" t="n">
-        <v>250</v>
+        <v>299</v>
       </c>
       <c r="E19" t="n">
-        <v>60.4</v>
+        <v>69.40000000000001</v>
       </c>
       <c r="F19" t="n">
-        <v>2827</v>
+        <v>3460</v>
       </c>
       <c r="G19" t="n">
-        <v>6.83</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="H19" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I19" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J19" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="K19" t="n">
-        <v>144</v>
+        <v>247</v>
       </c>
       <c r="L19" t="n">
-        <v>84.5</v>
+        <v>103</v>
       </c>
       <c r="M19" t="n">
-        <v>2683</v>
+        <v>3213</v>
       </c>
       <c r="N19" t="n">
-        <v>206.4</v>
+        <v>214.2</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Jacksonville Jaguars</t>
+          <t>New Orleans Saints</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C20" t="n">
-        <v>426</v>
+        <v>529</v>
       </c>
       <c r="D20" t="n">
-        <v>254</v>
+        <v>352</v>
       </c>
       <c r="E20" t="n">
-        <v>59.6</v>
+        <v>66.5</v>
       </c>
       <c r="F20" t="n">
-        <v>2883</v>
+        <v>3435</v>
       </c>
       <c r="G20" t="n">
-        <v>6.77</v>
+        <v>6.49</v>
       </c>
       <c r="H20" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I20" t="n">
         <v>11</v>
       </c>
       <c r="J20" t="n">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="K20" t="n">
-        <v>203</v>
+        <v>259</v>
       </c>
       <c r="L20" t="n">
-        <v>83.3</v>
+        <v>86</v>
       </c>
       <c r="M20" t="n">
-        <v>2680</v>
+        <v>3176</v>
       </c>
       <c r="N20" t="n">
-        <v>206.2</v>
+        <v>211.7</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Tampa Bay Buccaneers</t>
+          <t>New York Giants</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C21" t="n">
-        <v>432</v>
+        <v>463</v>
       </c>
       <c r="D21" t="n">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="E21" t="n">
-        <v>61.3</v>
+        <v>60.3</v>
       </c>
       <c r="F21" t="n">
-        <v>2784</v>
+        <v>3266</v>
       </c>
       <c r="G21" t="n">
-        <v>6.44</v>
+        <v>7.05</v>
       </c>
       <c r="H21" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I21" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J21" t="n">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="K21" t="n">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="L21" t="n">
-        <v>89.7</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="M21" t="n">
-        <v>2598</v>
+        <v>3067</v>
       </c>
       <c r="N21" t="n">
-        <v>199.8</v>
+        <v>204.5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>New Orleans Saints</t>
+          <t>Pittsburgh Steelers</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C22" t="n">
-        <v>446</v>
+        <v>464</v>
       </c>
       <c r="D22" t="n">
-        <v>295</v>
+        <v>313</v>
       </c>
       <c r="E22" t="n">
-        <v>66.09999999999999</v>
+        <v>67.5</v>
       </c>
       <c r="F22" t="n">
-        <v>2817</v>
+        <v>3170</v>
       </c>
       <c r="G22" t="n">
-        <v>6.32</v>
+        <v>6.83</v>
       </c>
       <c r="H22" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="I22" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J22" t="n">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="K22" t="n">
-        <v>225</v>
+        <v>180</v>
       </c>
       <c r="L22" t="n">
-        <v>83</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="M22" t="n">
-        <v>2592</v>
+        <v>2990</v>
       </c>
       <c r="N22" t="n">
-        <v>199.4</v>
+        <v>199.3</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Philadelphia Eagles</t>
+          <t>Tampa Bay Buccaneers</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C23" t="n">
-        <v>382</v>
+        <v>492</v>
       </c>
       <c r="D23" t="n">
-        <v>247</v>
+        <v>302</v>
       </c>
       <c r="E23" t="n">
-        <v>64.7</v>
+        <v>61.4</v>
       </c>
       <c r="F23" t="n">
-        <v>2754</v>
+        <v>3206</v>
       </c>
       <c r="G23" t="n">
-        <v>7.21</v>
+        <v>6.52</v>
       </c>
       <c r="H23" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I23" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J23" t="n">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="K23" t="n">
-        <v>168</v>
+        <v>231</v>
       </c>
       <c r="L23" t="n">
-        <v>96</v>
+        <v>89.2</v>
       </c>
       <c r="M23" t="n">
-        <v>2586</v>
+        <v>2975</v>
       </c>
       <c r="N23" t="n">
-        <v>198.9</v>
+        <v>198.3</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Pittsburgh Steelers</t>
+          <t>Philadelphia Eagles</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C24" t="n">
-        <v>396</v>
+        <v>430</v>
       </c>
       <c r="D24" t="n">
-        <v>263</v>
+        <v>284</v>
       </c>
       <c r="E24" t="n">
-        <v>66.40000000000001</v>
+        <v>66</v>
       </c>
       <c r="F24" t="n">
-        <v>2680</v>
+        <v>3147</v>
       </c>
       <c r="G24" t="n">
-        <v>6.77</v>
+        <v>7.32</v>
       </c>
       <c r="H24" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I24" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J24" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="K24" t="n">
-        <v>142</v>
+        <v>179</v>
       </c>
       <c r="L24" t="n">
-        <v>94.7</v>
+        <v>100.4</v>
       </c>
       <c r="M24" t="n">
-        <v>2538</v>
+        <v>2968</v>
       </c>
       <c r="N24" t="n">
-        <v>195.2</v>
+        <v>197.9</v>
       </c>
     </row>
     <row r="25">
@@ -1570,135 +1570,135 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C25" t="n">
-        <v>382</v>
+        <v>424</v>
       </c>
       <c r="D25" t="n">
-        <v>236</v>
+        <v>258</v>
       </c>
       <c r="E25" t="n">
-        <v>61.8</v>
+        <v>60.8</v>
       </c>
       <c r="F25" t="n">
-        <v>2651</v>
+        <v>3000</v>
       </c>
       <c r="G25" t="n">
-        <v>6.94</v>
+        <v>7.08</v>
       </c>
       <c r="H25" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J25" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K25" t="n">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="L25" t="n">
-        <v>86.40000000000001</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="M25" t="n">
-        <v>2483</v>
+        <v>2808</v>
       </c>
       <c r="N25" t="n">
-        <v>191</v>
+        <v>187.2</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Carolina Panthers</t>
+          <t>Miami Dolphins</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C26" t="n">
-        <v>400</v>
+        <v>432</v>
       </c>
       <c r="D26" t="n">
-        <v>255</v>
+        <v>292</v>
       </c>
       <c r="E26" t="n">
-        <v>63.8</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="F26" t="n">
-        <v>2630</v>
+        <v>3013</v>
       </c>
       <c r="G26" t="n">
-        <v>6.58</v>
+        <v>6.97</v>
       </c>
       <c r="H26" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I26" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="J26" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K26" t="n">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L26" t="n">
-        <v>88</v>
+        <v>86.5</v>
       </c>
       <c r="M26" t="n">
-        <v>2414</v>
+        <v>2798</v>
       </c>
       <c r="N26" t="n">
-        <v>185.7</v>
+        <v>186.5</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Las Vegas Raiders</t>
+          <t>Carolina Panthers</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C27" t="n">
-        <v>411</v>
+        <v>456</v>
       </c>
       <c r="D27" t="n">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="E27" t="n">
-        <v>67.2</v>
+        <v>63.8</v>
       </c>
       <c r="F27" t="n">
-        <v>2753</v>
+        <v>2984</v>
       </c>
       <c r="G27" t="n">
-        <v>6.7</v>
+        <v>6.54</v>
       </c>
       <c r="H27" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I27" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J27" t="n">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="K27" t="n">
-        <v>355</v>
+        <v>242</v>
       </c>
       <c r="L27" t="n">
-        <v>85.5</v>
+        <v>89.5</v>
       </c>
       <c r="M27" t="n">
-        <v>2398</v>
+        <v>2742</v>
       </c>
       <c r="N27" t="n">
-        <v>184.5</v>
+        <v>182.8</v>
       </c>
     </row>
     <row r="28">
@@ -1708,65 +1708,65 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C28" t="n">
-        <v>352</v>
+        <v>384</v>
       </c>
       <c r="D28" t="n">
-        <v>227</v>
+        <v>251</v>
       </c>
       <c r="E28" t="n">
-        <v>64.5</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="F28" t="n">
-        <v>2617</v>
+        <v>2933</v>
       </c>
       <c r="G28" t="n">
-        <v>7.43</v>
+        <v>7.64</v>
       </c>
       <c r="H28" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I28" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J28" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="K28" t="n">
-        <v>248</v>
+        <v>277</v>
       </c>
       <c r="L28" t="n">
-        <v>92.2</v>
+        <v>94</v>
       </c>
       <c r="M28" t="n">
-        <v>2369</v>
+        <v>2656</v>
       </c>
       <c r="N28" t="n">
-        <v>182.2</v>
+        <v>177.1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Miami Dolphins</t>
+          <t>Minnesota Vikings</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C29" t="n">
-        <v>374</v>
+        <v>437</v>
       </c>
       <c r="D29" t="n">
-        <v>250</v>
+        <v>268</v>
       </c>
       <c r="E29" t="n">
-        <v>66.8</v>
+        <v>61.3</v>
       </c>
       <c r="F29" t="n">
-        <v>2500</v>
+        <v>2918</v>
       </c>
       <c r="G29" t="n">
         <v>6.68</v>
@@ -1775,114 +1775,114 @@
         <v>18</v>
       </c>
       <c r="I29" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="J29" t="n">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="K29" t="n">
-        <v>184</v>
+        <v>313</v>
       </c>
       <c r="L29" t="n">
-        <v>86.09999999999999</v>
+        <v>74.7</v>
       </c>
       <c r="M29" t="n">
-        <v>2316</v>
+        <v>2605</v>
       </c>
       <c r="N29" t="n">
-        <v>178.2</v>
+        <v>173.7</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Cleveland Browns</t>
+          <t>Las Vegas Raiders</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C30" t="n">
-        <v>448</v>
+        <v>459</v>
       </c>
       <c r="D30" t="n">
-        <v>257</v>
+        <v>307</v>
       </c>
       <c r="E30" t="n">
-        <v>57.4</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="F30" t="n">
-        <v>2521</v>
+        <v>3018</v>
       </c>
       <c r="G30" t="n">
-        <v>5.63</v>
+        <v>6.58</v>
       </c>
       <c r="H30" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I30" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="J30" t="n">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="K30" t="n">
-        <v>256</v>
+        <v>421</v>
       </c>
       <c r="L30" t="n">
-        <v>73.5</v>
+        <v>84.5</v>
       </c>
       <c r="M30" t="n">
-        <v>2265</v>
+        <v>2597</v>
       </c>
       <c r="N30" t="n">
-        <v>174.2</v>
+        <v>173.1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Minnesota Vikings</t>
+          <t>Cleveland Browns</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C31" t="n">
-        <v>390</v>
+        <v>513</v>
       </c>
       <c r="D31" t="n">
-        <v>237</v>
+        <v>295</v>
       </c>
       <c r="E31" t="n">
-        <v>60.8</v>
+        <v>57.5</v>
       </c>
       <c r="F31" t="n">
-        <v>2508</v>
+        <v>2855</v>
       </c>
       <c r="G31" t="n">
-        <v>6.43</v>
+        <v>5.57</v>
       </c>
       <c r="H31" t="n">
+        <v>15</v>
+      </c>
+      <c r="I31" t="n">
         <v>16</v>
       </c>
-      <c r="I31" t="n">
-        <v>19</v>
-      </c>
       <c r="J31" t="n">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K31" t="n">
-        <v>279</v>
+        <v>314</v>
       </c>
       <c r="L31" t="n">
-        <v>72.90000000000001</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="M31" t="n">
-        <v>2229</v>
+        <v>2541</v>
       </c>
       <c r="N31" t="n">
-        <v>171.5</v>
+        <v>169.4</v>
       </c>
     </row>
     <row r="32">
@@ -1892,43 +1892,43 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>15</v>
+      </c>
+      <c r="C32" t="n">
+        <v>497</v>
+      </c>
+      <c r="D32" t="n">
+        <v>299</v>
+      </c>
+      <c r="E32" t="n">
+        <v>60.2</v>
+      </c>
+      <c r="F32" t="n">
+        <v>2866</v>
+      </c>
+      <c r="G32" t="n">
+        <v>5.77</v>
+      </c>
+      <c r="H32" t="n">
         <v>13</v>
-      </c>
-      <c r="C32" t="n">
-        <v>440</v>
-      </c>
-      <c r="D32" t="n">
-        <v>260</v>
-      </c>
-      <c r="E32" t="n">
-        <v>59.1</v>
-      </c>
-      <c r="F32" t="n">
-        <v>2468</v>
-      </c>
-      <c r="G32" t="n">
-        <v>5.61</v>
-      </c>
-      <c r="H32" t="n">
-        <v>9</v>
       </c>
       <c r="I32" t="n">
         <v>7</v>
       </c>
       <c r="J32" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K32" t="n">
-        <v>371</v>
+        <v>387</v>
       </c>
       <c r="L32" t="n">
-        <v>74.90000000000001</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="M32" t="n">
-        <v>2097</v>
+        <v>2479</v>
       </c>
       <c r="N32" t="n">
-        <v>161.3</v>
+        <v>165.3</v>
       </c>
     </row>
     <row r="33">
@@ -1938,43 +1938,43 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C33" t="n">
-        <v>370</v>
+        <v>438</v>
       </c>
       <c r="D33" t="n">
-        <v>223</v>
+        <v>267</v>
       </c>
       <c r="E33" t="n">
-        <v>60.3</v>
+        <v>61</v>
       </c>
       <c r="F33" t="n">
-        <v>2205</v>
+        <v>2569</v>
       </c>
       <c r="G33" t="n">
-        <v>5.96</v>
+        <v>5.87</v>
       </c>
       <c r="H33" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I33" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J33" t="n">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="K33" t="n">
-        <v>301</v>
+        <v>380</v>
       </c>
       <c r="L33" t="n">
-        <v>79.8</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="M33" t="n">
-        <v>1904</v>
+        <v>2189</v>
       </c>
       <c r="N33" t="n">
-        <v>146.5</v>
+        <v>145.9</v>
       </c>
     </row>
   </sheetData>
